--- a/tamek/231005-Приложение 1 Спецификация 2023.xlsx
+++ b/tamek/231005-Приложение 1 Спецификация 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\altin\OneDrive\Documents\GitHub\Tamek-React-Application\tamekapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA894DAA-5F49-46EF-90BD-531ED2AEE719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0D2283-8831-4B35-8644-4445E71737D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="3420" windowWidth="18240" windowHeight="11175" tabRatio="425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10410" yWindow="1110" windowWidth="18240" windowHeight="13470" tabRatio="425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="КАРТА ВВОДА" sheetId="1" r:id="rId1"/>
@@ -1226,56 +1226,56 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1690,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1771,125 +1771,125 @@
       <c r="C5" s="26"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="61" t="s">
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
       <c r="AF5" s="27"/>
       <c r="AG5" s="27"/>
     </row>
     <row r="6" spans="1:33" s="34" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="53" t="s">
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" s="53" t="s">
+      <c r="Q6" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="R6" s="57" t="s">
+      <c r="R6" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="S6" s="57" t="s">
+      <c r="S6" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="T6" s="57" t="s">
+      <c r="T6" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="57" t="s">
+      <c r="V6" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="57" t="s">
+      <c r="W6" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="X6" s="53" t="s">
+      <c r="X6" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="Y6" s="53" t="s">
+      <c r="Y6" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="Z6" s="57" t="s">
+      <c r="Z6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="AA6" s="57" t="s">
+      <c r="AA6" s="63" t="s">
         <v>39</v>
       </c>
       <c r="AB6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AC6" s="58" t="s">
+      <c r="AC6" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="60"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="67"/>
       <c r="AF6" s="33"/>
       <c r="AG6" s="33"/>
     </row>
     <row r="7" spans="1:33" s="35" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="36" t="s">
         <v>61</v>
       </c>
@@ -1899,18 +1899,18 @@
       <c r="O7" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
       <c r="AB7" s="32" t="s">
         <v>55</v>
       </c>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="69" t="s">
+      <c r="P9" s="53" t="s">
         <v>194</v>
       </c>
       <c r="Q9" s="16" t="s">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="69" t="s">
+      <c r="P13" s="53" t="s">
         <v>207</v>
       </c>
       <c r="Q13" s="16" t="s">
@@ -2586,7 +2586,7 @@
       <c r="AF15" s="51"/>
       <c r="AG15" s="51"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>8</v>
       </c>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
-      <c r="P16" s="47" t="s">
+      <c r="P16" s="53" t="s">
         <v>195</v>
       </c>
       <c r="Q16" s="16" t="s">
@@ -2748,7 +2748,7 @@
       <c r="AF17" s="51"/>
       <c r="AG17" s="51"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>10</v>
       </c>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="47" t="s">
+      <c r="P18" s="53" t="s">
         <v>206</v>
       </c>
       <c r="Q18" s="16" t="s">
@@ -2829,7 +2829,7 @@
       <c r="AF18" s="51"/>
       <c r="AG18" s="51"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="357" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>11</v>
       </c>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="N19" s="28"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="47" t="s">
+      <c r="P19" s="53" t="s">
         <v>204</v>
       </c>
       <c r="Q19" s="16" t="s">
@@ -2910,7 +2910,7 @@
       <c r="AF19" s="51"/>
       <c r="AG19" s="51"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>12</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="47" t="s">
+      <c r="P20" s="53" t="s">
         <v>205</v>
       </c>
       <c r="Q20" s="16" t="s">
@@ -3639,7 +3639,7 @@
       <c r="AF28" s="51"/>
       <c r="AG28" s="51"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="357" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>21</v>
       </c>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="N29" s="28"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="47" t="s">
+      <c r="P29" s="53" t="s">
         <v>200</v>
       </c>
       <c r="Q29" s="16" t="s">
@@ -3976,14 +3976,14 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:25" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="39" t="s">
@@ -3997,14 +3997,14 @@
       <c r="Y36" s="3"/>
     </row>
     <row r="37" spans="2:25" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="40" t="s">
@@ -5343,18 +5343,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="P6:P7"/>
@@ -5368,11 +5361,18 @@
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="X6:X7"/>
     <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:C32">
     <cfRule type="duplicateValues" dxfId="9" priority="122"/>
